--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.1434793282135</v>
+        <v>332.1386855348664</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.0478792668448</v>
+        <v>454.4468024734595</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.1668185088597</v>
+        <v>411.0750374654849</v>
       </c>
       <c r="AD2" t="n">
-        <v>244143.4793282135</v>
+        <v>332138.6855348664</v>
       </c>
       <c r="AE2" t="n">
-        <v>334047.8792668448</v>
+        <v>454446.8024734595</v>
       </c>
       <c r="AF2" t="n">
         <v>9.141772361092417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>302166.8185088597</v>
+        <v>411075.0374654849</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5205719537443</v>
+        <v>235.0060554274009</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.8407929161637</v>
+        <v>321.5456527710674</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.0959874168719</v>
+        <v>290.8577869628501</v>
       </c>
       <c r="AD3" t="n">
-        <v>166520.5719537442</v>
+        <v>235006.0554274009</v>
       </c>
       <c r="AE3" t="n">
-        <v>227840.7929161637</v>
+        <v>321545.6527710673</v>
       </c>
       <c r="AF3" t="n">
         <v>1.231265768342048e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.74305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>206095.9874168719</v>
+        <v>290857.7869628501</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.9476337734556</v>
+        <v>208.6787613955449</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.1649677514734</v>
+        <v>285.5234875984603</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.5843111801719</v>
+        <v>258.2735266768789</v>
       </c>
       <c r="AD4" t="n">
-        <v>149947.6337734556</v>
+        <v>208678.7613955449</v>
       </c>
       <c r="AE4" t="n">
-        <v>205164.9677514734</v>
+        <v>285523.4875984603</v>
       </c>
       <c r="AF4" t="n">
         <v>1.335221663141547e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.75925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>185584.3111801719</v>
+        <v>258273.5266768789</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.3130043826144</v>
+        <v>207.0441320047037</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.9283957041664</v>
+        <v>283.2869155511534</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.5611944300107</v>
+        <v>256.2504099267177</v>
       </c>
       <c r="AD5" t="n">
-        <v>148313.0043826144</v>
+        <v>207044.1320047037</v>
       </c>
       <c r="AE5" t="n">
-        <v>202928.3957041664</v>
+        <v>283286.9155511534</v>
       </c>
       <c r="AF5" t="n">
         <v>1.364132955564262e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>183561.1944300107</v>
+        <v>256250.4099267177</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.3702257885897</v>
+        <v>272.1009154504254</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.6283591018512</v>
+        <v>372.3004767644456</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.9410209701196</v>
+        <v>336.768641789047</v>
       </c>
       <c r="AD2" t="n">
-        <v>204370.2257885897</v>
+        <v>272100.9154504254</v>
       </c>
       <c r="AE2" t="n">
-        <v>279628.3591018512</v>
+        <v>372300.4767644457</v>
       </c>
       <c r="AF2" t="n">
         <v>1.14450200724769e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>252941.0209701196</v>
+        <v>336768.641789047</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.9749221257912</v>
+        <v>205.0582170264391</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.0975725283589</v>
+        <v>280.5696990655076</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.9051024485252</v>
+        <v>253.7925207688238</v>
       </c>
       <c r="AD3" t="n">
-        <v>146974.9221257912</v>
+        <v>205058.2170264391</v>
       </c>
       <c r="AE3" t="n">
-        <v>201097.5725283589</v>
+        <v>280569.6990655076</v>
       </c>
       <c r="AF3" t="n">
         <v>1.448455174702624e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>181905.1024485252</v>
+        <v>253792.5207688238</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.3675040432245</v>
+        <v>202.3493137173872</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.5299880766257</v>
+        <v>276.8632580496852</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.678003249728</v>
+        <v>250.4398172815276</v>
       </c>
       <c r="AD4" t="n">
-        <v>144367.5040432245</v>
+        <v>202349.3137173872</v>
       </c>
       <c r="AE4" t="n">
-        <v>197529.9880766257</v>
+        <v>276863.2580496852</v>
       </c>
       <c r="AF4" t="n">
         <v>1.500283752389716e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>178678.003249728</v>
+        <v>250439.8172815276</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.245191630486</v>
+        <v>200.6652329710091</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0484377855028</v>
+        <v>274.5590244760929</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.38767460042</v>
+        <v>248.3554965261861</v>
       </c>
       <c r="AD2" t="n">
-        <v>135245.191630486</v>
+        <v>200665.2329710091</v>
       </c>
       <c r="AE2" t="n">
-        <v>185048.4377855028</v>
+        <v>274559.0244760929</v>
       </c>
       <c r="AF2" t="n">
         <v>1.999507130073393e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>167387.67460042</v>
+        <v>248355.4965261861</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.4395526508076</v>
+        <v>208.2676536139757</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.206276978281</v>
+        <v>284.9609917949224</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.4308007193691</v>
+        <v>257.7647146833626</v>
       </c>
       <c r="AD2" t="n">
-        <v>151439.5526508076</v>
+        <v>208267.6536139757</v>
       </c>
       <c r="AE2" t="n">
-        <v>207206.2769782809</v>
+        <v>284960.9917949224</v>
       </c>
       <c r="AF2" t="n">
         <v>1.685639587708689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>187430.8007193691</v>
+        <v>257764.7146833626</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.3824694571198</v>
+        <v>195.2778902279924</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.3409997148305</v>
+        <v>267.1878244623133</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.2705604438626</v>
+        <v>241.6877934961752</v>
       </c>
       <c r="AD3" t="n">
-        <v>138382.4694571198</v>
+        <v>195277.8902279924</v>
       </c>
       <c r="AE3" t="n">
-        <v>189340.9997148305</v>
+        <v>267187.8244623133</v>
       </c>
       <c r="AF3" t="n">
         <v>1.790488755445509e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>171270.5604438626</v>
+        <v>241687.7934961752</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.6681169153399</v>
+        <v>207.3926538347984</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.2048116365863</v>
+        <v>283.7637784947867</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.5747383857195</v>
+        <v>256.6817617402921</v>
       </c>
       <c r="AD2" t="n">
-        <v>142668.1169153399</v>
+        <v>207392.6538347984</v>
       </c>
       <c r="AE2" t="n">
-        <v>195204.8116365863</v>
+        <v>283763.7784947866</v>
       </c>
       <c r="AF2" t="n">
         <v>2.174072353432629e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.62731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>176574.7383857195</v>
+        <v>256681.7617402921</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.990903205845</v>
+        <v>286.6623327964617</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.9505737940374</v>
+        <v>392.2240503816872</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.6598523653695</v>
+        <v>354.7907375031702</v>
       </c>
       <c r="AD2" t="n">
-        <v>208990.903205845</v>
+        <v>286662.3327964617</v>
       </c>
       <c r="AE2" t="n">
-        <v>285950.5737940375</v>
+        <v>392224.0503816872</v>
       </c>
       <c r="AF2" t="n">
         <v>1.080076084282406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>258659.8523653696</v>
+        <v>354790.7375031703</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.5265021465312</v>
+        <v>217.7127545317867</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.2711980493566</v>
+        <v>297.8841955591089</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.4397012531391</v>
+        <v>269.4545460181297</v>
       </c>
       <c r="AD3" t="n">
-        <v>159526.5021465312</v>
+        <v>217712.7545317867</v>
       </c>
       <c r="AE3" t="n">
-        <v>218271.1980493566</v>
+        <v>297884.1955591089</v>
       </c>
       <c r="AF3" t="n">
         <v>1.382058372587013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>197439.7012531391</v>
+        <v>269454.5460181297</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.3226202997606</v>
+        <v>203.4747072662352</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.836820275573</v>
+        <v>278.4030711520776</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.8601132177588</v>
+        <v>251.8326727825694</v>
       </c>
       <c r="AD4" t="n">
-        <v>145322.6202997606</v>
+        <v>203474.7072662352</v>
       </c>
       <c r="AE4" t="n">
-        <v>198836.8202755731</v>
+        <v>278403.0711520776</v>
       </c>
       <c r="AF4" t="n">
         <v>1.464330302110736e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>179860.1132177588</v>
+        <v>251832.6727825694</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.1630620217026</v>
+        <v>215.388205337116</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.827970301634</v>
+        <v>294.7036447990893</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.0885991009844</v>
+        <v>266.5775425587143</v>
       </c>
       <c r="AD2" t="n">
-        <v>151163.0620217026</v>
+        <v>215388.205337116</v>
       </c>
       <c r="AE2" t="n">
-        <v>206827.970301634</v>
+        <v>294703.6447990892</v>
       </c>
       <c r="AF2" t="n">
         <v>2.26824078413855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>187088.5991009844</v>
+        <v>266577.5425587143</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.6220757483681</v>
+        <v>239.7411822335185</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.1891395873135</v>
+        <v>328.0244621662455</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.647579598708</v>
+        <v>296.7182678824207</v>
       </c>
       <c r="AD2" t="n">
-        <v>172622.0757483681</v>
+        <v>239741.1822335185</v>
       </c>
       <c r="AE2" t="n">
-        <v>236189.1395873135</v>
+        <v>328024.4621662455</v>
       </c>
       <c r="AF2" t="n">
         <v>1.368527666176077e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213647.579598708</v>
+        <v>296718.2678824207</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.4176666099782</v>
+        <v>198.8468440850505</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.4938903628172</v>
+        <v>272.0710245806696</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.0271050370254</v>
+        <v>246.1049478488515</v>
       </c>
       <c r="AD3" t="n">
-        <v>141417.6666099782</v>
+        <v>198846.8440850505</v>
       </c>
       <c r="AE3" t="n">
-        <v>193493.8903628172</v>
+        <v>272071.0245806696</v>
       </c>
       <c r="AF3" t="n">
         <v>1.627189753183397e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>175027.1050370254</v>
+        <v>246104.9478488515</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.3807607740256</v>
+        <v>267.5553188226867</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.4873558972956</v>
+        <v>366.0809909208035</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.6268082468339</v>
+        <v>331.1427349452189</v>
       </c>
       <c r="AD2" t="n">
-        <v>190380.7607740256</v>
+        <v>267555.3188226867</v>
       </c>
       <c r="AE2" t="n">
-        <v>260487.3558972956</v>
+        <v>366080.9909208035</v>
       </c>
       <c r="AF2" t="n">
         <v>1.211740376669356e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>235626.8082468339</v>
+        <v>331142.734945219</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.3225365457867</v>
+        <v>202.2290791463656</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.4684615628053</v>
+        <v>276.6987478052386</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.6223487400336</v>
+        <v>250.2910076639193</v>
       </c>
       <c r="AD3" t="n">
-        <v>144322.5365457867</v>
+        <v>202229.0791463656</v>
       </c>
       <c r="AE3" t="n">
-        <v>197468.4615628053</v>
+        <v>276698.7478052385</v>
       </c>
       <c r="AF3" t="n">
         <v>1.51936986639149e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>178622.3487400336</v>
+        <v>250291.0076639194</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.5621585803001</v>
+        <v>201.3672159543938</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.4280788849187</v>
+        <v>275.5195085632628</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.6812587247379</v>
+        <v>249.2243133601247</v>
       </c>
       <c r="AD4" t="n">
-        <v>143562.1585803001</v>
+        <v>201367.2159543938</v>
       </c>
       <c r="AE4" t="n">
-        <v>196428.0788849187</v>
+        <v>275519.5085632628</v>
       </c>
       <c r="AF4" t="n">
         <v>1.534690424146959e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>177681.2587247379</v>
+        <v>249224.3133601247</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.4582139340119</v>
+        <v>316.2895633061747</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.5866071694377</v>
+        <v>432.7613342262388</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.7537800993378</v>
+        <v>391.4591998720331</v>
       </c>
       <c r="AD2" t="n">
-        <v>228458.2139340119</v>
+        <v>316289.5633061746</v>
       </c>
       <c r="AE2" t="n">
-        <v>312586.6071694377</v>
+        <v>432761.3342262388</v>
       </c>
       <c r="AF2" t="n">
         <v>9.687988690974421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>282753.7800993378</v>
+        <v>391459.1998720331</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.3680955396997</v>
+        <v>232.6737749583164</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.8956797259121</v>
+        <v>318.3545237403149</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.4319516960046</v>
+        <v>287.971214808014</v>
       </c>
       <c r="AD3" t="n">
-        <v>164368.0955396997</v>
+        <v>232673.7749583164</v>
       </c>
       <c r="AE3" t="n">
-        <v>224895.6797259121</v>
+        <v>318354.5237403149</v>
       </c>
       <c r="AF3" t="n">
         <v>1.275211155208042e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>203431.9516960046</v>
+        <v>287971.214808014</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.8094093655012</v>
+        <v>206.3864192261276</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.2393547847083</v>
+        <v>282.387003911266</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.9379146088304</v>
+        <v>255.436384590707</v>
       </c>
       <c r="AD4" t="n">
-        <v>147809.4093655012</v>
+        <v>206386.4192261276</v>
       </c>
       <c r="AE4" t="n">
-        <v>202239.3547847083</v>
+        <v>282387.003911266</v>
       </c>
       <c r="AF4" t="n">
         <v>1.383569216175271e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.58564814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>182937.9146088304</v>
+        <v>255436.384590707</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.4163823178948</v>
+        <v>205.9933921785212</v>
       </c>
       <c r="AB5" t="n">
-        <v>201.7015978390439</v>
+        <v>281.8492469656016</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.4514804313135</v>
+        <v>254.94995041319</v>
       </c>
       <c r="AD5" t="n">
-        <v>147416.3823178948</v>
+        <v>205993.3921785212</v>
       </c>
       <c r="AE5" t="n">
-        <v>201701.5978390439</v>
+        <v>281849.2469656016</v>
       </c>
       <c r="AF5" t="n">
         <v>1.392346399087399e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>182451.4804313135</v>
+        <v>254949.95041319</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.2102721475772</v>
+        <v>221.814300653238</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.3655417461622</v>
+        <v>303.49611190992</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.097672498879</v>
+        <v>274.5308689487952</v>
       </c>
       <c r="AD2" t="n">
-        <v>155210.2721475772</v>
+        <v>221814.300653238</v>
       </c>
       <c r="AE2" t="n">
-        <v>212365.5417461622</v>
+        <v>303496.11190992</v>
       </c>
       <c r="AF2" t="n">
         <v>1.567751608830471e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>192097.672498879</v>
+        <v>274530.8689487952</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.3979107117105</v>
+        <v>196.5163626469461</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7303712374671</v>
+        <v>268.8823570634719</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5273322983744</v>
+        <v>243.2206022841711</v>
       </c>
       <c r="AD3" t="n">
-        <v>139397.9107117105</v>
+        <v>196516.3626469461</v>
       </c>
       <c r="AE3" t="n">
-        <v>190730.3712374671</v>
+        <v>268882.3570634719</v>
       </c>
       <c r="AF3" t="n">
         <v>1.733194121019741e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>172527.3322983744</v>
+        <v>243220.6022841711</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.4965834366436</v>
+        <v>192.9021836485237</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.7606472621969</v>
+        <v>263.9372779115087</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.9364732077601</v>
+        <v>238.7474745460075</v>
       </c>
       <c r="AD2" t="n">
-        <v>136496.5834366436</v>
+        <v>192902.1836485237</v>
       </c>
       <c r="AE2" t="n">
-        <v>186760.6472621969</v>
+        <v>263937.2779115086</v>
       </c>
       <c r="AF2" t="n">
         <v>1.914518044891987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>168936.4732077601</v>
+        <v>238747.4745460075</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.5010731513752</v>
+        <v>192.9066733632553</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.7667902879649</v>
+        <v>263.9434209372767</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.9420299517706</v>
+        <v>238.753031290018</v>
       </c>
       <c r="AD3" t="n">
-        <v>136501.0731513752</v>
+        <v>192906.6733632553</v>
       </c>
       <c r="AE3" t="n">
-        <v>186766.7902879649</v>
+        <v>263943.4209372767</v>
       </c>
       <c r="AF3" t="n">
         <v>1.920346494217853e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>168942.0299517706</v>
+        <v>238753.031290018</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.8399249253602</v>
+        <v>199.6084096235688</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.808131052416</v>
+        <v>273.1130321483702</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.0250392467759</v>
+        <v>247.0475076767579</v>
       </c>
       <c r="AD2" t="n">
-        <v>143839.9249253602</v>
+        <v>199608.4096235688</v>
       </c>
       <c r="AE2" t="n">
-        <v>196808.131052416</v>
+        <v>273113.0321483702</v>
       </c>
       <c r="AF2" t="n">
         <v>2.076100525455764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>178025.0392467759</v>
+        <v>247047.5076767579</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.6720914066848</v>
+        <v>223.4287797643021</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.4703996980435</v>
+        <v>305.7051134554683</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.6198913760566</v>
+        <v>276.5290464871903</v>
       </c>
       <c r="AD2" t="n">
-        <v>159672.0914066848</v>
+        <v>223428.7797643021</v>
       </c>
       <c r="AE2" t="n">
-        <v>218470.3996980435</v>
+        <v>305705.1134554683</v>
       </c>
       <c r="AF2" t="n">
         <v>2.354775263717952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.3287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>197619.8913760566</v>
+        <v>276529.0464871904</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.3333885015216</v>
+        <v>253.6091150393366</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.9495625965957</v>
+        <v>346.9991796411723</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.6175341664093</v>
+        <v>313.8820649527298</v>
       </c>
       <c r="AD2" t="n">
-        <v>186333.3885015216</v>
+        <v>253609.1150393366</v>
       </c>
       <c r="AE2" t="n">
-        <v>254949.5625965957</v>
+        <v>346999.1796411723</v>
       </c>
       <c r="AF2" t="n">
         <v>1.285302760525964e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>230617.5341664093</v>
+        <v>313882.0649527297</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8611383065601</v>
+        <v>200.5837494598625</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.4689120195564</v>
+        <v>274.4475351413432</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.8136333988063</v>
+        <v>248.2546475770687</v>
       </c>
       <c r="AD3" t="n">
-        <v>142861.1383065601</v>
+        <v>200583.7494598625</v>
       </c>
       <c r="AE3" t="n">
-        <v>195468.9120195564</v>
+        <v>274447.5351413433</v>
       </c>
       <c r="AF3" t="n">
         <v>1.571532815711136e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>176813.6333988063</v>
+        <v>248254.6475770687</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.5074172001009</v>
+        <v>200.1285431269181</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.9849351966253</v>
+        <v>273.824701754323</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.3758466445899</v>
+        <v>247.6912565343533</v>
       </c>
       <c r="AD4" t="n">
-        <v>142507.4172001009</v>
+        <v>200128.5431269181</v>
       </c>
       <c r="AE4" t="n">
-        <v>194984.9351966253</v>
+        <v>273824.701754323</v>
       </c>
       <c r="AF4" t="n">
         <v>1.581178732555277e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>176375.8466445899</v>
+        <v>247691.2565343533</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.729612111172</v>
+        <v>301.5529226471498</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.116725544242</v>
+        <v>412.5980123418593</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.9013748959129</v>
+        <v>373.2202371288988</v>
       </c>
       <c r="AD2" t="n">
-        <v>223729.612111172</v>
+        <v>301552.9226471498</v>
       </c>
       <c r="AE2" t="n">
-        <v>306116.725544242</v>
+        <v>412598.0123418593</v>
       </c>
       <c r="AF2" t="n">
         <v>1.020736281852774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276901.3748959128</v>
+        <v>373220.2371288988</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.8632557224078</v>
+        <v>220.2139086724621</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4684473821613</v>
+        <v>301.3063849975123</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.3318095969895</v>
+        <v>272.5501264996061</v>
       </c>
       <c r="AD3" t="n">
-        <v>161863.2557224078</v>
+        <v>220213.9086724621</v>
       </c>
       <c r="AE3" t="n">
-        <v>221468.4473821613</v>
+        <v>301306.3849975123</v>
       </c>
       <c r="AF3" t="n">
         <v>1.329447457309716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.31481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>200331.8095969895</v>
+        <v>272550.1264996061</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.4199738714041</v>
+        <v>204.7364614026776</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.3382678441178</v>
+        <v>280.1294588262211</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.2182647376569</v>
+        <v>253.3942964400936</v>
       </c>
       <c r="AD4" t="n">
-        <v>146419.9738714041</v>
+        <v>204736.4614026776</v>
       </c>
       <c r="AE4" t="n">
-        <v>200338.2678441177</v>
+        <v>280129.4588262211</v>
       </c>
       <c r="AF4" t="n">
         <v>1.426795192534932e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>181218.2647376569</v>
+        <v>253394.2964400936</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.5542243159522</v>
+        <v>204.8707118472257</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.5219552250601</v>
+        <v>280.3131462071634</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.384421252769</v>
+        <v>253.5604529552057</v>
       </c>
       <c r="AD5" t="n">
-        <v>146554.2243159522</v>
+        <v>204870.7118472258</v>
       </c>
       <c r="AE5" t="n">
-        <v>200521.9552250601</v>
+        <v>280313.1462071633</v>
       </c>
       <c r="AF5" t="n">
         <v>1.426427308651814e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>181384.421252769</v>
+        <v>253560.4529552057</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.1098887032041</v>
+        <v>259.3427475040598</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.697807377337</v>
+        <v>354.8441885295825</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.4396306733355</v>
+        <v>320.9783572032649</v>
       </c>
       <c r="AD2" t="n">
-        <v>178109.8887032041</v>
+        <v>259342.7475040598</v>
       </c>
       <c r="AE2" t="n">
-        <v>243697.807377337</v>
+        <v>354844.1885295825</v>
       </c>
       <c r="AF2" t="n">
         <v>2.366502655974851e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.79398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>220439.6306733355</v>
+        <v>320978.3572032648</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.7270539407511</v>
+        <v>204.7604781267903</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.8124754073291</v>
+        <v>280.1623195676952</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.6970391579896</v>
+        <v>253.4240209985217</v>
       </c>
       <c r="AD2" t="n">
-        <v>138727.0539407511</v>
+        <v>204760.4781267903</v>
       </c>
       <c r="AE2" t="n">
-        <v>189812.4754073291</v>
+        <v>280162.3195676952</v>
       </c>
       <c r="AF2" t="n">
         <v>1.805494117551929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>171697.0391579896</v>
+        <v>253424.0209985217</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5328131958133</v>
+        <v>194.1914603588997</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.1784625339228</v>
+        <v>265.7013231855184</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2189741798692</v>
+        <v>240.3431618149194</v>
       </c>
       <c r="AD3" t="n">
-        <v>137532.8131958133</v>
+        <v>194191.4603588997</v>
       </c>
       <c r="AE3" t="n">
-        <v>188178.4625339228</v>
+        <v>265701.3231855184</v>
       </c>
       <c r="AF3" t="n">
         <v>1.84915354370942e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.71296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>170218.9741798691</v>
+        <v>240343.1618149194</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.4182525329334</v>
+        <v>225.7147858387421</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.4372832043675</v>
+        <v>308.8329278179858</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.4446723161673</v>
+        <v>279.3583466368652</v>
       </c>
       <c r="AD2" t="n">
-        <v>168418.2525329334</v>
+        <v>225714.7858387421</v>
       </c>
       <c r="AE2" t="n">
-        <v>230437.2832043675</v>
+        <v>308832.9278179858</v>
       </c>
       <c r="AF2" t="n">
         <v>1.467690351732609e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>208444.6723161673</v>
+        <v>279358.3466368652</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.3411269070791</v>
+        <v>197.6708146018114</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.0209212477315</v>
+        <v>270.4619291589436</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.6947140269579</v>
+        <v>244.6494222357949</v>
       </c>
       <c r="AD3" t="n">
-        <v>140341.126907079</v>
+        <v>197670.8146018114</v>
       </c>
       <c r="AE3" t="n">
-        <v>192020.9212477315</v>
+        <v>270461.9291589436</v>
       </c>
       <c r="AF3" t="n">
         <v>1.676884301137127e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>173694.7140269579</v>
+        <v>244649.4222357949</v>
       </c>
     </row>
   </sheetData>
